--- a/database_dum_exc.xlsx
+++ b/database_dum_exc.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,20 +374,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>vendor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>start_date</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>end_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pdf_file</t>
         </is>
@@ -396,25 +401,94 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Perjanjian 1</t>
+          <t>Perjanjian</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>PT Abadi Jaya</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>#A123fh</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16-06-2020 21:51:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>16-06-2020 21:51:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>C:/Users/Hp/Pictures/4 Celah.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kontrak Asana</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AHM</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>15-06-2020</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18-06-2020</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16-06-2020 21:00:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>16-06-2020 22:46:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>E:/16719147_Arsyi Adlani_Summary.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>C:/Users/Hp/Pictures/3 celah.pdf</t>
         </is>

--- a/database_dum_exc.xlsx
+++ b/database_dum_exc.xlsx
@@ -433,59 +433,59 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kontrak Asana</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AHM</t>
+          <t>abadi ehe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16-06-2020 21:00:00</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>16-06-2020 22:46:00</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>E:/16719147_Arsyi Adlani_Summary.pdf</t>
+          <t>E:/16719147 Arsyi Adlani Introductory Paragraph.pdf</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Kontrak Asana</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AHM</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16-06-2020 21:00:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16-06-2020 22:46:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
